--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>125.4603323333333</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H2">
-        <v>376.380997</v>
+        <v>336.869507</v>
       </c>
       <c r="I2">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J2">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N2">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O2">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P2">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q2">
-        <v>6189.140153305327</v>
+        <v>6634.973987013449</v>
       </c>
       <c r="R2">
-        <v>55702.26137974794</v>
+        <v>59714.76588312104</v>
       </c>
       <c r="S2">
-        <v>0.1425642353023634</v>
+        <v>0.2012113827456146</v>
       </c>
       <c r="T2">
-        <v>0.1425642353023634</v>
+        <v>0.2012113827456146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>125.4603323333333</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H3">
-        <v>376.380997</v>
+        <v>336.869507</v>
       </c>
       <c r="I3">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J3">
-        <v>0.1427077914074319</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04967466666666667</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N3">
-        <v>0.149024</v>
+        <v>0.092642</v>
       </c>
       <c r="O3">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="P3">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="Q3">
-        <v>6.232200188547555</v>
+        <v>3.467584985277111</v>
       </c>
       <c r="R3">
-        <v>56.08980169692799</v>
+        <v>31.208264867494</v>
       </c>
       <c r="S3">
-        <v>0.0001435561050684928</v>
+        <v>0.0001051575441050971</v>
       </c>
       <c r="T3">
-        <v>0.0001435561050684928</v>
+        <v>0.0001051575441050972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>207.849991</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H4">
-        <v>623.5499730000001</v>
+        <v>336.869507</v>
       </c>
       <c r="I4">
-        <v>0.2364238369850373</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J4">
-        <v>0.2364238369850374</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>49.33145033333333</v>
+        <v>0.05196466666666667</v>
       </c>
       <c r="N4">
-        <v>147.994351</v>
+        <v>0.155894</v>
       </c>
       <c r="O4">
-        <v>0.9989940555897285</v>
+        <v>0.00087772591751267</v>
       </c>
       <c r="P4">
-        <v>0.9989940555897285</v>
+        <v>0.0008777259175126701</v>
       </c>
       <c r="Q4">
-        <v>10253.54150780028</v>
+        <v>5.835103880473111</v>
       </c>
       <c r="R4">
-        <v>92281.87357020254</v>
+        <v>52.515934924258</v>
       </c>
       <c r="S4">
-        <v>0.2361860077477673</v>
+        <v>0.000176954622964962</v>
       </c>
       <c r="T4">
-        <v>0.2361860077477674</v>
+        <v>0.0001769546229649621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>207.849991</v>
+        <v>112.2898356666667</v>
       </c>
       <c r="H5">
-        <v>623.5499730000001</v>
+        <v>336.869507</v>
       </c>
       <c r="I5">
-        <v>0.2364238369850373</v>
+        <v>0.2016057853987292</v>
       </c>
       <c r="J5">
-        <v>0.2364238369850374</v>
+        <v>0.2016057853987293</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04967466666666667</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N5">
-        <v>0.149024</v>
+        <v>0.098926</v>
       </c>
       <c r="O5">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="P5">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="Q5">
-        <v>10.32487901959467</v>
+        <v>3.702794761053556</v>
       </c>
       <c r="R5">
-        <v>92.92391117635201</v>
+        <v>33.325152849482</v>
       </c>
       <c r="S5">
-        <v>0.0002378292372700312</v>
+        <v>0.0001122904860445677</v>
       </c>
       <c r="T5">
-        <v>0.0002378292372700312</v>
+        <v>0.0001122904860445677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>240.299296</v>
+        <v>207.849991</v>
       </c>
       <c r="H6">
-        <v>720.897888</v>
+        <v>623.549973</v>
       </c>
       <c r="I6">
-        <v>0.2733340584321854</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J6">
-        <v>0.2733340584321855</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,43 +806,43 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N6">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O6">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P6">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q6">
-        <v>11854.31278575896</v>
+        <v>12281.42578799196</v>
       </c>
       <c r="R6">
-        <v>106688.8150718307</v>
+        <v>110532.8320919277</v>
       </c>
       <c r="S6">
-        <v>0.2730590995639688</v>
+        <v>0.3724449665855944</v>
       </c>
       <c r="T6">
-        <v>0.2730590995639688</v>
+        <v>0.3724449665855944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,61 +850,61 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>240.299296</v>
+        <v>207.849991</v>
       </c>
       <c r="H7">
-        <v>720.897888</v>
+        <v>623.549973</v>
       </c>
       <c r="I7">
-        <v>0.2733340584321854</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J7">
-        <v>0.2733340584321855</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.04967466666666667</v>
+        <v>0.03088066666666667</v>
       </c>
       <c r="N7">
-        <v>0.149024</v>
+        <v>0.092642</v>
       </c>
       <c r="O7">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="P7">
-        <v>0.001005944410271468</v>
+        <v>0.0005215998335420784</v>
       </c>
       <c r="Q7">
-        <v>11.93678742903467</v>
+        <v>6.418546288740667</v>
       </c>
       <c r="R7">
-        <v>107.431086861312</v>
+        <v>57.766916598666</v>
       </c>
       <c r="S7">
-        <v>0.0002749588682166719</v>
+        <v>0.0001946480237152472</v>
       </c>
       <c r="T7">
-        <v>0.000274958868216672</v>
+        <v>0.0001946480237152472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>115.486529</v>
+        <v>207.849991</v>
       </c>
       <c r="H8">
-        <v>346.459587</v>
+        <v>623.549973</v>
       </c>
       <c r="I8">
-        <v>0.1313628553693985</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J8">
-        <v>0.1313628553693985</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>49.33145033333333</v>
+        <v>0.05196466666666667</v>
       </c>
       <c r="N8">
-        <v>147.994351</v>
+        <v>0.155894</v>
       </c>
       <c r="O8">
-        <v>0.9989940555897285</v>
+        <v>0.00087772591751267</v>
       </c>
       <c r="P8">
-        <v>0.9989940555897285</v>
+        <v>0.0008777259175126701</v>
       </c>
       <c r="Q8">
-        <v>5697.117969532559</v>
+        <v>10.80085549898467</v>
       </c>
       <c r="R8">
-        <v>51274.06172579304</v>
+        <v>97.20769949086201</v>
       </c>
       <c r="S8">
-        <v>0.1312307116393224</v>
+        <v>0.0003275453790836203</v>
       </c>
       <c r="T8">
-        <v>0.1312307116393224</v>
+        <v>0.0003275453790836203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>115.486529</v>
+        <v>207.849991</v>
       </c>
       <c r="H9">
-        <v>346.459587</v>
+        <v>623.549973</v>
       </c>
       <c r="I9">
-        <v>0.1313628553693985</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="J9">
-        <v>0.1313628553693985</v>
+        <v>0.3731750111832515</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04967466666666667</v>
+        <v>0.03297533333333334</v>
       </c>
       <c r="N9">
-        <v>0.149024</v>
+        <v>0.098926</v>
       </c>
       <c r="O9">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="P9">
-        <v>0.001005944410271468</v>
+        <v>0.0005569804746549476</v>
       </c>
       <c r="Q9">
-        <v>5.736754832565333</v>
+        <v>6.853922736555335</v>
       </c>
       <c r="R9">
-        <v>51.630793493088</v>
+        <v>61.685304628998</v>
       </c>
       <c r="S9">
-        <v>0.0001321437300761458</v>
+        <v>0.0002078511948582128</v>
       </c>
       <c r="T9">
-        <v>0.0001321437300761458</v>
+        <v>0.0002078511948582128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>190.0452853333333</v>
+        <v>69.44798033333335</v>
       </c>
       <c r="H10">
-        <v>570.135856</v>
+        <v>208.343941</v>
       </c>
       <c r="I10">
-        <v>0.2161714578059467</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="J10">
-        <v>0.2161714578059467</v>
+        <v>0.1246872839053714</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,90 +1054,710 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.33145033333333</v>
+        <v>59.08793033333334</v>
       </c>
       <c r="N10">
-        <v>147.994351</v>
+        <v>177.263791</v>
       </c>
       <c r="O10">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="P10">
-        <v>0.9989940555897285</v>
+        <v>0.9980436937742903</v>
       </c>
       <c r="Q10">
-        <v>9375.209554505494</v>
+        <v>4103.537423726705</v>
       </c>
       <c r="R10">
-        <v>84376.88599054945</v>
+        <v>36931.83681354034</v>
       </c>
       <c r="S10">
-        <v>0.2159540013363065</v>
+        <v>0.1244433573956005</v>
       </c>
       <c r="T10">
-        <v>0.2159540013363066</v>
+        <v>0.1244433573956005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>69.44798033333335</v>
+      </c>
+      <c r="H11">
+        <v>208.343941</v>
+      </c>
+      <c r="I11">
+        <v>0.1246872839053714</v>
+      </c>
+      <c r="J11">
+        <v>0.1246872839053714</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.092642</v>
+      </c>
+      <c r="O11">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="P11">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="Q11">
+        <v>2.144599931346889</v>
+      </c>
+      <c r="R11">
+        <v>19.301399382122</v>
+      </c>
+      <c r="S11">
+        <v>6.503686652985562E-05</v>
+      </c>
+      <c r="T11">
+        <v>6.503686652985562E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>69.44798033333335</v>
+      </c>
+      <c r="H12">
+        <v>208.343941</v>
+      </c>
+      <c r="I12">
+        <v>0.1246872839053714</v>
+      </c>
+      <c r="J12">
+        <v>0.1246872839053714</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.155894</v>
+      </c>
+      <c r="O12">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P12">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q12">
+        <v>3.60884114869489</v>
+      </c>
+      <c r="R12">
+        <v>32.47957033825401</v>
+      </c>
+      <c r="S12">
+        <v>0.0001094412606680049</v>
+      </c>
+      <c r="T12">
+        <v>0.0001094412606680049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>69.44798033333335</v>
+      </c>
+      <c r="H13">
+        <v>208.343941</v>
+      </c>
+      <c r="I13">
+        <v>0.1246872839053714</v>
+      </c>
+      <c r="J13">
+        <v>0.1246872839053714</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.098926</v>
+      </c>
+      <c r="O13">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P13">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q13">
+        <v>2.290070300818445</v>
+      </c>
+      <c r="R13">
+        <v>20.610632707366</v>
+      </c>
+      <c r="S13">
+        <v>6.944838257305E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.944838257305E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>190.0452853333333</v>
-      </c>
-      <c r="H11">
-        <v>570.135856</v>
-      </c>
-      <c r="I11">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="J11">
-        <v>0.2161714578059467</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.04967466666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.149024</v>
-      </c>
-      <c r="O11">
-        <v>0.001005944410271468</v>
-      </c>
-      <c r="P11">
-        <v>0.001005944410271468</v>
-      </c>
-      <c r="Q11">
-        <v>9.440436200504889</v>
-      </c>
-      <c r="R11">
-        <v>84.96392580454399</v>
-      </c>
-      <c r="S11">
-        <v>0.0002174564696401267</v>
-      </c>
-      <c r="T11">
-        <v>0.0002174564696401267</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>105.8415793333333</v>
+      </c>
+      <c r="H14">
+        <v>317.524738</v>
+      </c>
+      <c r="I14">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="J14">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>59.08793033333334</v>
+      </c>
+      <c r="N14">
+        <v>177.263791</v>
+      </c>
+      <c r="O14">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="P14">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="Q14">
+        <v>6253.959866017974</v>
+      </c>
+      <c r="R14">
+        <v>56285.63879416177</v>
+      </c>
+      <c r="S14">
+        <v>0.1896567966566324</v>
+      </c>
+      <c r="T14">
+        <v>0.1896567966566324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>105.8415793333333</v>
+      </c>
+      <c r="H15">
+        <v>317.524738</v>
+      </c>
+      <c r="I15">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="J15">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.092642</v>
+      </c>
+      <c r="O15">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="P15">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="Q15">
+        <v>3.268458530866222</v>
+      </c>
+      <c r="R15">
+        <v>29.416126777796</v>
+      </c>
+      <c r="S15">
+        <v>9.911886040992847E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.911886040992847E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>105.8415793333333</v>
+      </c>
+      <c r="H16">
+        <v>317.524738</v>
+      </c>
+      <c r="I16">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="J16">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.155894</v>
+      </c>
+      <c r="O16">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P16">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q16">
+        <v>5.500022389530223</v>
+      </c>
+      <c r="R16">
+        <v>49.500201505772</v>
+      </c>
+      <c r="S16">
+        <v>0.0001667929840109819</v>
+      </c>
+      <c r="T16">
+        <v>0.000166792984010982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>105.8415793333333</v>
+      </c>
+      <c r="H17">
+        <v>317.524738</v>
+      </c>
+      <c r="I17">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="J17">
+        <v>0.1900285506934165</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.098926</v>
+      </c>
+      <c r="O17">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P17">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q17">
+        <v>3.490161359043112</v>
+      </c>
+      <c r="R17">
+        <v>31.411452231388</v>
+      </c>
+      <c r="S17">
+        <v>0.0001058421923632109</v>
+      </c>
+      <c r="T17">
+        <v>0.0001058421923632109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>61.54786233333334</v>
+      </c>
+      <c r="H18">
+        <v>184.643587</v>
+      </c>
+      <c r="I18">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="J18">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>59.08793033333334</v>
+      </c>
+      <c r="N18">
+        <v>177.263791</v>
+      </c>
+      <c r="O18">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="P18">
+        <v>0.9980436937742903</v>
+      </c>
+      <c r="Q18">
+        <v>3636.735801717592</v>
+      </c>
+      <c r="R18">
+        <v>32730.62221545833</v>
+      </c>
+      <c r="S18">
+        <v>0.1102871903908482</v>
+      </c>
+      <c r="T18">
+        <v>0.1102871903908483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>61.54786233333334</v>
+      </c>
+      <c r="H19">
+        <v>184.643587</v>
+      </c>
+      <c r="I19">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="J19">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03088066666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.092642</v>
+      </c>
+      <c r="O19">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="P19">
+        <v>0.0005215998335420784</v>
+      </c>
+      <c r="Q19">
+        <v>1.900639020761556</v>
+      </c>
+      <c r="R19">
+        <v>17.105751186854</v>
+      </c>
+      <c r="S19">
+        <v>5.76385387819499E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.763853878194991E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>61.54786233333334</v>
+      </c>
+      <c r="H20">
+        <v>184.643587</v>
+      </c>
+      <c r="I20">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="J20">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05196466666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.155894</v>
+      </c>
+      <c r="O20">
+        <v>0.00087772591751267</v>
+      </c>
+      <c r="P20">
+        <v>0.0008777259175126701</v>
+      </c>
+      <c r="Q20">
+        <v>3.198314150197556</v>
+      </c>
+      <c r="R20">
+        <v>28.78482735177801</v>
+      </c>
+      <c r="S20">
+        <v>9.699167078510069E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.699167078510072E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>61.54786233333334</v>
+      </c>
+      <c r="H21">
+        <v>184.643587</v>
+      </c>
+      <c r="I21">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="J21">
+        <v>0.1105033688192312</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.03297533333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.098926</v>
+      </c>
+      <c r="O21">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="P21">
+        <v>0.0005569804746549476</v>
+      </c>
+      <c r="Q21">
+        <v>2.029561276395778</v>
+      </c>
+      <c r="R21">
+        <v>18.266051487562</v>
+      </c>
+      <c r="S21">
+        <v>6.154821881590614E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.154821881590615E-05</v>
       </c>
     </row>
   </sheetData>
